--- a/wrangle/data/interventions/standardized-restrictions.xlsx
+++ b/wrangle/data/interventions/standardized-restrictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kt/Documents/work/STATCAN/Projects/nick/CovidTimeline/wrangle/data/interventions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68821DA-88F3-0D45-9B91-442D8AD0E4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C65F6-A980-874D-AB38-A75B877DD4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="2060" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{86546001-3EFC-E246-8DB8-6E829CCD7EB6}"/>
+    <workbookView xWindow="1960" yWindow="2060" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{86546001-3EFC-E246-8DB8-6E829CCD7EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>https://www.quebec.ca/en/health/health-issues/a-z/2019-coronavirus/progressive-regional-alert-and-intervention-system/</t>
   </si>
   <si>
-    <t>Limits to operations such as nightclubs restricted to operate as restaurants, establishments obligated to reduced hours of operation, or partial closures.</t>
-  </si>
-  <si>
     <t>Green level</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>https://www2.gnb.ca/content/dam/gnb/Departments/eco-bce/Promo/covid-19/red-phase-frequently-asked-questions.pdf</t>
+  </si>
+  <si>
+    <t>Limits to operations such as nightclubs restricted to operate as restaurants, establishments obligated to reduced hours of operation or number of guests, or partial closures.</t>
   </si>
 </sst>
 </file>
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1175,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7501E192-E645-FE48-AF98-C21D02C07D3A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1379,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1387,7 +1387,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1407,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EABBA44-C292-CB4F-B560-29A615710003}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1437,10 +1437,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/wrangle/data/interventions/standardized-restrictions.xlsx
+++ b/wrangle/data/interventions/standardized-restrictions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kt/Documents/work/STATCAN/Projects/nick/CovidTimeline/wrangle/data/interventions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C65F6-A980-874D-AB38-A75B877DD4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9925FE4-0B8A-DB45-92D2-F82D48629AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="2060" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{86546001-3EFC-E246-8DB8-6E829CCD7EB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{86546001-3EFC-E246-8DB8-6E829CCD7EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
-    <sheet name="terms" sheetId="3" r:id="rId2"/>
-    <sheet name="sources" sheetId="2" r:id="rId3"/>
+    <sheet name="on" sheetId="4" r:id="rId2"/>
+    <sheet name="terms" sheetId="3" r:id="rId3"/>
+    <sheet name="sources" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
   <si>
     <t>Ont.</t>
   </si>
@@ -144,13 +145,129 @@
   </si>
   <si>
     <t>Limits to operations such as nightclubs restricted to operate as restaurants, establishments obligated to reduced hours of operation or number of guests, or partial closures.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recreation and services permited with restrictions. Oxygen bars, steam rooms, saunas, bath houses and other adult venues, closed. Public health measures for high risk settings. Restaurants &amp; eating places, cinemas, performing arts, and some personal care operate with restrictions. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Closures of indoor gyms and fitness centres (i.e., exercise classes and weight and exercise rooms);
+Casinos, bingo halls and other gaming establishments;
+Indoor cinemas, performing arts centres and venues, (except for rehearsing or performing a recorded or broadcasted performance subject to conditions, including no spectators);
+Spectator areas in racing venues;
+Interactive exhibits or exhibits with high risk of personal contact in museums, galleries, zoos, science centres, landmarks, etc.; Restaurants and events closed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Closures of non-essential services and recreation. Retail permitted to be open for curbside pick-up or delivery only.
+Restaurants, bars, and food and drink establishments will only be able to provide takeout, drive-through and delivery. Indoor and outdoor dining services are prohibited;
+Personal care services closed;
+Casinos, bingo halls and other gaming establishments closed; and
+Indoor sports and recreational facilities, including pools, closed with limited exceptions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Closures</t>
+  </si>
+  <si>
+    <t>All things open with restrictions in place except high risk areas, which remain closed.</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Restaurants &amp; eating places, cinemas, performing arts, and some personal care operate with restrictions. </t>
+    </r>
+  </si>
+  <si>
+    <t>Stay-at-home</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>https://covid-19.ontario.ca/zones-and-restrictions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,8 +290,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +354,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -474,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -511,6 +660,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,7 +998,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1365,10 +1530,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421134DE-01C1-F243-BE35-80C492E07898}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="54.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="54.83203125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17">
+      <c r="A1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34">
+      <c r="A2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="85">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="150">
+      <c r="A5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="150">
+      <c r="A6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7501E192-E645-FE48-AF98-C21D02C07D3A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1403,7 +1684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EABBA44-C292-CB4F-B560-29A615710003}">
   <dimension ref="A1:C3"/>
   <sheetViews>
